--- a/biology/Botanique/Flore_fossile_du_district_de_Kızılcahamam/Flore_fossile_du_district_de_Kızılcahamam.xlsx
+++ b/biology/Botanique/Flore_fossile_du_district_de_Kızılcahamam/Flore_fossile_du_district_de_Kızılcahamam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_fossile_du_district_de_K%C4%B1z%C4%B1lcahamam</t>
+          <t>Flore_fossile_du_district_de_Kızılcahamam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore fossile du district de Kızılcahamam provient d'au moins six gisements du Pliocène situés dans les villages de Güvem et Beşkonak, à 22 km au nord de Kızılcahamam, à 80 km au nord d'Ankara et à 125 km au sud de la côte de la mer Noire. Ces flores fossiles se situent entre 1 000 et 1 500 mètres d'altitude, s'étendant sur 15 km du nord au sud et 7 km de l'est à l'ouest. Il y a entre six et sept millions d'années il existait un lac d'eau douce dans une zone boisée d'arbres principalement à feuilles caduques larges, dominées par des séquoias et des chênes.
 Le professeur de botanique turc Baki Kasaplıgil (1918-1992) de Çankırı, professeur au département de biologie du Mills College de 1956 à 1992, fait des voyages de ramassage de fossiles dans la région située entre Kızılcahamam et Çerkeş en 1964 et 1968. Lors du voyage de 1964, il ramasse des feuilles de fossiles de Glyptostrobus, Sequoia, Zelkova, Fagus, Carpinus, Ulmus, Quercus, Tilia et Acer. Lors du voyage de 1968, il recueille 400 parties de plantes telles que des feuilles, des graines, des fruits, des brindilles et des branches. Il recueille aussi 50 fossiles de squelettes de grenouilles et de poissons, de larves et d'insectes. En 1969, Wayne Fry de l'université de Berkeley crée des collections de plantes fossiles à Güvem. Daniel Isaac Axelrod participe également à la recherche sur cette flore.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_fossile_du_district_de_K%C4%B1z%C4%B1lcahamam</t>
+          <t>Flore_fossile_du_district_de_Kızılcahamam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pteridophyta
-Salviniaceae
+          <t>Pteridophyta</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salviniaceae
 Salvinia sp.
 Pteridaceae
-Cryptogramma aff. crispo
-Gymnospermes
-†Glyptostrobus europaeus
+Cryptogramma aff. crispo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Flore_fossile_du_district_de_Kızılcahamam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_fossile_du_district_de_K%C4%B1z%C4%B1lcahamam</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces végétales fossiles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gymnospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Glyptostrobus europaeus
 Pinus canariensis
 Pinus morrisonicola
 †Sequoia langsdorfi
 Tsuga sp.
-Ephedra sp.
-Angiospermes, Dicotylédones
-Cercidiphyllaceae
+Ephedra sp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flore_fossile_du_district_de_Kızılcahamam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_fossile_du_district_de_K%C4%B1z%C4%B1lcahamam</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces végétales fossiles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angiospermes, Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cercidiphyllaceae
 †Cercidiphyllum crenatum
 Magnoliaceae
 Magnolia sprengeri
@@ -591,9 +676,43 @@
 Altingiaceae
 †Liquidambar europaeum
 Simaroubaceae
-Ailanthus altissima aff.
-Angiospermes, Monocotylédones
-Smilacaceae
+Ailanthus altissima aff.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flore_fossile_du_district_de_Kızılcahamam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_fossile_du_district_de_K%C4%B1z%C4%B1lcahamam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces végétales fossiles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Angiospermes, Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smilacaceae
 Smilax aspera
 Potamogetonaceae
 Potamogeton sp.
